--- a/repaginado/Artefatos_GrowHealthy/Defesa Sprint 2 - GrowHealthy.xlsx
+++ b/repaginado/Artefatos_GrowHealthy/Defesa Sprint 2 - GrowHealthy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B021D7-2DA5-45D9-A3E2-DE34B4413B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F78B90-FD87-4270-8473-8A29737364E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Produto Final Operacional</t>
   </si>
@@ -315,312 +315,6 @@
 AJUSTADA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>PBI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (texto padrão ARO)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>COMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Persona
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>POSSO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">PBI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>PARA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Benefício / Resultado da Feature do PBI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">:	
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>DADO QUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">cenário 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>QUANDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">ação do usuário esperada
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ENTÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">resultado esperado, com mensagem ao usuário
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>DADO QUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">cenário 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>QUANDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">ação do usuário (não adequada ou que pode gerar erro)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ENTÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> resultado trata o problema, com mensagem ao usuário</t>
-    </r>
-  </si>
-  <si>
     <t>GrowHealthy</t>
   </si>
   <si>
@@ -641,6 +335,2895 @@
   <si>
     <t>Vitor Sério Bertoldi</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Realizar Cadastro do aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Realizar meu cadastro como ALUNO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Receber instruções personalizadas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>não tenho cadastro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">preencho o formulário de cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">o sistema realiza meu cadastro na base de dados
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">já tenho cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">preencho formulário de cadasto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> sistema notifica que já existe um cadastro realizado no cpf informado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar treino personalizado do Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Realizar postagem de treino do aluno como Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar o treino personalizado para o Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">exista ao menos um aluno associado ao meu perfil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">posso postar treino personalizado para o aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">não exista alunos associados ao meu perfil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema mostra página com notificação de que não há alunos associados a mim.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Realizar cadastro do Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Realizar meu cadastro como Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar dieta personalizada para o Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">não tenho cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">preencho o formulário de cadastro como Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">o sistema realiza meu cadastro na base de dados
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">já tenho cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">preencho o formulário de cadastro como Nutricionista 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que já existe um cadastro realizado no cpf e/ou crn informado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Realizar cadastro do Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Realizar meu cadastro como Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar treino personalizado para o Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">não tenho cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">preencho o formulário de cadastro como Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o sistema realiza meu cadastro na base de dados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">já tenho cadastro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: preencho o formulário de cadastro como Personal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que já existe um cadastro realizado no cpf e/ou cr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ef informado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Montar treino personalizado do Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Montar treino personalizado do aluno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar treino personalizado do aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso a funcionalidade de montar treinos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> abro a funcionalidade de montar treinos e a comunicação com a IA está ativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>reviso o treino gerado apresentado pela IA no campo de texto e o posto para o aluno.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso a funcionalidade de montar treinos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>abro a funcionalidade de montar treinos e a comunicação com a IA está inativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que a comunicação com a IA está inativa e permite que eu escreva o treino manualmente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar orientação de treino personalizado do aluno via IA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Personal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consultar orientação de treino personalizado do aluno via IA como Personal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> IA para auxiliar a montar treinos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> abro a funcionalidade de montar treinos e a comunicação com a IA está ativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o sistema abre a página de postar treino com o campo de texto do treino preenchido com o treino gerado pela IA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>abro a funcionalidade de montar treinos e a comunicação com a IA está inativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que a comunicação com a IA está inativa e permite que eu escreva o treino manualmente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Consultar orientação de dieta personalizada do aluno via IA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consultar orientação de dieta personalizada do aluno via IA como Personal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> IA para auxiliar a montar dieta
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> abro a funcionalidade de montar dietas e a comunicação com a IA está ativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o sistema abre a página de montar dieta com o campo de texto da dieta preenchido com a dieta gerada pela IA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>abro a funcionalidade de montar dietas e a comunicação com a IA está inativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que a comunicação com a IA está inativa e permite que eu escreva a dieta manualmente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Montar dieta personalizada do Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Montar dieta personalizada do aluno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar dieta personalizada do aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso a funcionalidade de montar dietas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> abro a funcionalidade de montar dietas e a comunicação com a IA está ativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>reviso a dieta gerada apresentada pela IA no campo de texto e a posto para o aluno.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso a funcionalidade de montar dietas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>abro a funcionalidade de montar dietas e a comunicação com a IA está inativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema notifica que a comunicação com a IA está inativa e permite que eu escreva a dieta manualmente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar dieta personalizada do Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Nutricionista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Realizar postagem de dieta do aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Postar a dieta personalizada para o Aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">exista ao menos um aluno associado ao meu perfil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">posso postar dieta personalizado para o aluno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">não exista alunos associados ao meu perfil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">acesso minha página de pedidos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> o sistema mostra página com notificação de que não há alunos associados a mim.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +3232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,8 +3397,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1471,7 +4061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,12 +4157,210 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1594,209 +4382,17 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2094,8 +4690,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,106 +4717,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="77" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="79"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:25" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="82" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="T2" s="55" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="T2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="57"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="59" t="s">
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="66" t="s">
+      <c r="T3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="68"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="47" t="s">
+      <c r="U3" s="89"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="93" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="B4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="5"/>
       <c r="I4" s="14" t="s">
         <v>14</v>
@@ -2228,10 +4824,10 @@
       <c r="J4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="71"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="14" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +4846,7 @@
       <c r="R4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="67"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="14" t="s">
         <v>14</v>
       </c>
@@ -2260,25 +4856,25 @@
       <c r="V4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="94"/>
     </row>
     <row r="5" spans="1:25" s="4" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16">
         <v>6</v>
       </c>
       <c r="J5" s="17"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="16">
         <v>2</v>
       </c>
@@ -2304,32 +4900,32 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="49">
+      <c r="I6" s="95">
         <f>(I5*J5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="28"/>
-      <c r="M6" s="49">
+      <c r="M6" s="95">
         <f>(M5*N5)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="P6" s="49">
+      <c r="N6" s="96"/>
+      <c r="P6" s="95">
         <f>(P5*Q5)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="50"/>
+      <c r="Q6" s="96"/>
       <c r="R6" s="25" t="s">
         <v>17</v>
       </c>
@@ -2337,11 +4933,11 @@
         <f>S5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="97">
         <f>(T5*U5)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="52"/>
+      <c r="U6" s="98"/>
       <c r="V6" s="26" t="s">
         <v>18</v>
       </c>
@@ -2351,15 +4947,15 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="5"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -2376,15 +4972,15 @@
       <c r="V7"/>
     </row>
     <row r="8" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="5"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -2401,15 +4997,15 @@
       <c r="V8"/>
     </row>
     <row r="9" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="5"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -2427,66 +5023,66 @@
     </row>
     <row r="10" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="5"/>
-      <c r="P10" s="89" t="s">
+      <c r="P10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="91"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="100" t="s">
+      <c r="L11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="P11" s="92" t="s">
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="P11" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="42" t="s">
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="42" t="s">
+      <c r="S11" s="75"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="42" t="s">
+      <c r="V11" s="76"/>
+      <c r="W11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="X11" s="43"/>
+      <c r="X11" s="76"/>
       <c r="Y11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2495,243 +5091,251 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="B12" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="99"/>
-      <c r="P12" s="33" t="str">
-        <f>B4</f>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="P12" s="40" t="str">
+        <f t="shared" ref="P12:P17" si="0">B4</f>
         <v>Felipe Gabriel Souza Sphair</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="107"/>
       <c r="Y12" s="12">
-        <f>$W$6 * W12</f>
+        <f t="shared" ref="Y12:Y17" si="1">$W$6 * W12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="B13" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="30">
         <v>1</v>
       </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
-      <c r="P13" s="33" t="str">
-        <f>B5</f>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="P13" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>João Vitor Cidral Varpechoski</v>
       </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="107"/>
       <c r="Y13" s="12">
-        <f>$W$6 * W13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="B14" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30">
         <v>2</v>
       </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="P14" s="33" t="str">
-        <f>B6</f>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="P14" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>João Vitor Dadas de Oliveira</v>
       </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="107"/>
       <c r="Y14" s="12">
-        <f>$W$6 * W14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="B15" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="30">
         <v>2</v>
       </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="99"/>
-      <c r="P15" s="33" t="str">
-        <f>B7</f>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="P15" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>José Alcides Aguayo Mussy</v>
       </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="107"/>
       <c r="Y15" s="12">
-        <f>$W$6 * W15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
+      <c r="B16" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="30">
         <v>2</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="99"/>
-      <c r="P16" s="33" t="str">
-        <f>B8</f>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="P16" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>Rafael Visnieski de Oliveira</v>
       </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="12">
-        <f>$W$6 * W16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99"/>
-      <c r="P17" s="33" t="str">
-        <f>B9</f>
+      <c r="B17" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="30">
+        <v>2</v>
+      </c>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="P17" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>Vitor Sério Bertoldi</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="12">
-        <f>$W$6 * W17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
+      <c r="B18" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="30">
+        <v>2</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
@@ -2741,44 +5345,52 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="261" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
+      <c r="B19" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="30">
+        <v>2</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
+      <c r="B20" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="30">
+        <v>2</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -2787,103 +5399,95 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
     </row>
     <row r="23" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="I1:O1"/>
@@ -2900,42 +5504,50 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
